--- a/Desktop/Borang Baru - Edited/Digestion/Gerhadt/Muka Depan.xlsx
+++ b/Desktop/Borang Baru - Edited/Digestion/Gerhadt/Muka Depan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang Baru - Edited\Digestion\Gerhadt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5697DD97-AA82-4872-AD6F-0206BCF5EBC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906883C7-B793-4427-A88F-AEBC8263338A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{95B9FBCE-B557-4AE4-AE15-05F05E04A3B1}"/>
   </bookViews>
@@ -85,6 +85,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -220,9 +223,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -243,41 +243,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1034,7 +1010,7 @@
   <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G18" sqref="E18:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,8 +1042,8 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -1075,8 +1051,8 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1152,345 +1128,311 @@
       <c r="H14" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="12" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>ROW(A1) &amp; ")"</f>
         <v>1)</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <f>[1]FormGerhadt!$B$8</f>
         <v>1</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="16">
         <f>[1]FormGerhadt!$C$8</f>
         <v>0</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
         <f>[1]FormGerhadt!$F$8</f>
         <v>0</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <f>[1]FormGerhadt!$B$9</f>
         <v>2</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16">
         <f>[1]FormGerhadt!$C$9</f>
         <v>0</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16">
         <f>[1]FormGerhadt!$F$9</f>
         <v>0</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <f>[1]FormGerhadt!$B$10</f>
         <v>3</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12">
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="16">
         <f>[1]FormGerhadt!$C$10</f>
         <v>0</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
         <f>[1]FormGerhadt!$F$10</f>
         <v>0</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <f>[1]FormGerhadt!$B$11</f>
         <v>4</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12">
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="16">
         <f>[1]FormGerhadt!$C$11</f>
         <v>0</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16">
         <f>[1]FormGerhadt!$F$11</f>
         <v>0</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <f>[1]FormGerhadt!$B$12</f>
         <v>5</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12">
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="16">
         <f>[1]FormGerhadt!$C$12</f>
         <v>0</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16">
         <f>[1]FormGerhadt!$F$12</f>
         <v>0</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <f>[1]FormGerhadt!$B$13</f>
         <v>6</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="16">
         <f>[1]FormGerhadt!$C$13</f>
         <v>0</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16">
         <f>[1]FormGerhadt!$F$13</f>
         <v>0</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <f>[1]FormGerhadt!$B$14</f>
         <v>7</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16">
         <f>[1]FormGerhadt!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16">
         <f>[1]FormGerhadt!$F$14</f>
         <v>0</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <f>[1]FormGerhadt!$B$15</f>
         <v>8</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12">
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="16">
         <f>[1]FormGerhadt!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16">
         <f>[1]FormGerhadt!$F$15</f>
         <v>0</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <f>[1]FormGerhadt!$B$16</f>
         <v>9</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12">
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="16">
         <f>[1]FormGerhadt!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16">
         <f>[1]FormGerhadt!$F$16</f>
         <v>0</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <f>[1]FormGerhadt!$B$17</f>
         <v>10</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12">
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="16">
         <f>[1]FormGerhadt!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16">
         <f>[1]FormGerhadt!$F$17</f>
         <v>0</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <f>[1]FormGerhadt!$B$18</f>
         <v>11</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="16">
         <f>[1]FormGerhadt!$C$18</f>
         <v>0</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12">
+      <c r="F28" s="16"/>
+      <c r="G28" s="16">
         <f>[1]FormGerhadt!$F$18</f>
         <v>0</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <f>[1]FormGerhadt!$B$19</f>
         <v>12</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12">
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16">
         <f>[1]FormGerhadt!$C$19</f>
         <v>0</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16">
         <f>[1]FormGerhadt!$F$19</f>
         <v>0</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <f>[1]FormGerhadt!$B$20</f>
         <v>13</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12">
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="16">
         <f>[1]FormGerhadt!$C$20</f>
         <v>0</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16">
         <f>[1]FormGerhadt!$F$20</f>
         <v>0</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <f>[1]FormGerhadt!$B$21</f>
         <v>14</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12">
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="16">
         <f>[1]FormGerhadt!$C$21</f>
         <v>0</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16">
         <f>[1]FormGerhadt!$F$21</f>
         <v>0</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <f>[1]FormGerhadt!$B$22</f>
         <v>15</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12">
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="16">
         <f>[1]FormGerhadt!$C$22</f>
         <v>0</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16">
         <f>[1]FormGerhadt!$F$22</f>
         <v>0</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B29:D29"/>
@@ -1507,39 +1449,73 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:D18 B21:D21 B24:D24 B27:D27">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:D20 B22:D23 B25:D26 B28:D29">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F32">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H32">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:D30">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:D31">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:D32">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
